--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.9999999999999898</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.499356992600676E-07</v>
+        <v>7.353855186603038E-08</v>
       </c>
       <c r="E3">
-        <v>8.499356992600676E-07</v>
+        <v>7.353855186603038E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9710870141364073</v>
+        <v>7.760516636441626E-09</v>
       </c>
       <c r="E4">
-        <v>0.9710870141364073</v>
+        <v>7.760516636441626E-09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0003534763820851751</v>
+        <v>1.870927493784412E-06</v>
       </c>
       <c r="E5">
-        <v>0.0003534763820851751</v>
+        <v>1.870927493784412E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.05841506417761E-39</v>
+        <v>5.199034782839191E-38</v>
       </c>
       <c r="E6">
-        <v>1.05841506417761E-39</v>
+        <v>5.199034782839191E-38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999477966</v>
+        <v>0.999999999995238</v>
       </c>
       <c r="E7">
-        <v>5.220335275168964E-11</v>
+        <v>4.761968597222221E-12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999996391478</v>
+        <v>0.9999999999322955</v>
       </c>
       <c r="E8">
-        <v>3.608522369802358E-10</v>
+        <v>6.7704508666111E-11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.815610356735973</v>
+        <v>0.5894363875520097</v>
       </c>
       <c r="E9">
-        <v>0.184389643264027</v>
+        <v>0.4105636124479903</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004565886294480132</v>
+        <v>0.0002267856319048671</v>
       </c>
       <c r="E11">
-        <v>0.9954341137055198</v>
+        <v>0.9997732143680952</v>
       </c>
       <c r="F11">
-        <v>6.491779327392578</v>
+        <v>4.114037990570068</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
